--- a/報告/甘特圖.xlsx
+++ b/報告/甘特圖.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/502e0c42009dd0fc/文件/GitHub/Final_Period_DataStructure/報告/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2787\OneDrive\文件\GitHub\Final_Period_DataStructure\報告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{24F747F7-1FC2-4F36-A753-146C5B066DB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6B93A608-E125-4532-BB20-4161D3BFC74B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="113_{2B8B6C46-FE76-4842-A91E-9F7A168D4AF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1D692A5B-3610-4453-8D61-2EB6BB47DB2A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C862612-BCA4-461C-96B3-1251961E9FFE}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>共同建立程式架構</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,10 @@
   </si>
   <si>
     <t>整合程式、debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫期末報告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,9 +275,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$6</c:f>
+              <c:f>工作表1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>共同建立程式架構</c:v>
                 </c:pt>
@@ -288,16 +292,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>整合程式、debug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>寫期末報告</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$6</c:f>
+              <c:f>工作表1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>43590</c:v>
                 </c:pt>
@@ -312,6 +319,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,9 +416,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>工作表1!$A$2:$A$6</c:f>
+              <c:f>工作表1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>共同建立程式架構</c:v>
                 </c:pt>
@@ -423,16 +433,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>整合程式、debug</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>寫期末報告</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$2:$C$6</c:f>
+              <c:f>工作表1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>35</c:v>
                 </c:pt>
@@ -447,6 +460,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,6 +536,7 @@
         <c:axId val="1003062712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="43628"/>
           <c:min val="43590"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1528,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1119AEAF-2658-487E-BD3D-E38861605AB9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1602,6 +1619,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43623</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
